--- a/april_status/Sourabh_Andhalkar_April.xlsx
+++ b/april_status/Sourabh_Andhalkar_April.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>Weekly Report</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Note : Number of hours</t>
-  </si>
-  <si>
     <t>Hours spend to attend session</t>
   </si>
   <si>
@@ -275,6 +272,12 @@
   </si>
   <si>
     <t>20 Hours 30 minuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of hours</t>
+  </si>
+  <si>
+    <t>Number of hours</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -350,20 +353,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,7 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,7 +692,7 @@
   <dimension ref="E1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="5:9">
@@ -757,10 +750,10 @@
         <v>44624</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="5:9">
@@ -771,10 +764,10 @@
         <v>44808</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="5:9">
@@ -785,136 +778,136 @@
         <v>44652</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10">
         <v>44624</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="10">
         <v>44655</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="10">
         <v>44685</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="10">
         <v>44716</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="10">
         <v>44746</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="10">
         <v>44777</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="10">
         <v>44808</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="5:9">
@@ -938,7 +931,7 @@
   <dimension ref="C2:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -982,10 +975,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -996,10 +989,10 @@
         <v>44838</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -1007,13 +1000,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -1024,138 +1017,138 @@
         <v>44652</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10">
         <v>44838</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10">
         <v>44869</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10">
         <v>44899</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1170,7 +1163,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1214,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1225,13 +1218,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1239,13 +1232,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1256,135 +1249,135 @@
         <v>44652</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="6"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1400,7 +1393,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1444,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1455,13 +1448,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1469,13 +1462,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1486,137 +1479,137 @@
         <v>44652</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6"/>
     </row>
